--- a/core/results/df_others_ss150.xlsx
+++ b/core/results/df_others_ss150.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.1264</v>
+        <v>88.6052</v>
       </c>
       <c r="C2" t="n">
-        <v>72.6367</v>
+        <v>74.7457</v>
       </c>
       <c r="D2" t="n">
-        <v>85.8394</v>
+        <v>87.28100000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>72.2085</v>
+        <v>73.4954</v>
       </c>
       <c r="F2" t="n">
-        <v>19.2933</v>
+        <v>19.8533</v>
       </c>
       <c r="G2" t="n">
-        <v>54.9412</v>
+        <v>57.7994</v>
       </c>
     </row>
     <row r="3">
@@ -502,22 +502,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.4666</v>
+        <v>86.38679999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>80.2247</v>
+        <v>80.10809999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>91.148</v>
+        <v>91.1049</v>
       </c>
       <c r="E3" t="n">
-        <v>80.7097</v>
+        <v>80.6187</v>
       </c>
       <c r="F3" t="n">
-        <v>27.2178</v>
+        <v>27.5022</v>
       </c>
       <c r="G3" t="n">
-        <v>64.4312</v>
+        <v>64.5059</v>
       </c>
     </row>
     <row r="4">
@@ -552,22 +552,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.54640000000001</v>
+        <v>86.4028</v>
       </c>
       <c r="C5" t="n">
-        <v>78.80459999999999</v>
+        <v>78.8258</v>
       </c>
       <c r="D5" t="n">
-        <v>90.96250000000001</v>
+        <v>90.93219999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>80.1768</v>
+        <v>80.1118</v>
       </c>
       <c r="F5" t="n">
-        <v>27.7956</v>
+        <v>27.56</v>
       </c>
       <c r="G5" t="n">
-        <v>63.8334</v>
+        <v>63.8707</v>
       </c>
     </row>
     <row r="6">
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.43470000000001</v>
+        <v>86.37090000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>80.2565</v>
+        <v>80.2141</v>
       </c>
       <c r="D6" t="n">
         <v>91.161</v>
       </c>
       <c r="E6" t="n">
-        <v>80.7097</v>
+        <v>80.6187</v>
       </c>
       <c r="F6" t="n">
-        <v>27.3733</v>
+        <v>27.6044</v>
       </c>
       <c r="G6" t="n">
-        <v>64.5993</v>
+        <v>64.5059</v>
       </c>
     </row>
     <row r="7">
@@ -602,22 +602,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85.4772</v>
+        <v>84.5196</v>
       </c>
       <c r="C7" t="n">
-        <v>68.9487</v>
+        <v>70.66549999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>82.82689999999999</v>
+        <v>83.87139999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>73.46939999999999</v>
+        <v>73.9113</v>
       </c>
       <c r="F7" t="n">
-        <v>21.96</v>
+        <v>21.4444</v>
       </c>
       <c r="G7" t="n">
-        <v>49.1313</v>
+        <v>51.2983</v>
       </c>
     </row>
     <row r="8">
@@ -627,22 +627,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.05710000000001</v>
+        <v>86.9933</v>
       </c>
       <c r="C8" t="n">
-        <v>77.09829999999999</v>
+        <v>77.9568</v>
       </c>
       <c r="D8" t="n">
-        <v>89.7799</v>
+        <v>90.0432</v>
       </c>
       <c r="E8" t="n">
-        <v>77.694</v>
+        <v>78.05800000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>22.8044</v>
+        <v>23.3333</v>
       </c>
       <c r="G8" t="n">
-        <v>60.9004</v>
+        <v>61.3488</v>
       </c>
     </row>
     <row r="9">

--- a/core/results/df_others_ss150.xlsx
+++ b/core/results/df_others_ss150.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,200 +473,175 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>local</t>
+          <t>FedAvg</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>88.6052</v>
+        <v>86.38679999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>74.7457</v>
+        <v>80.10809999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>87.28100000000001</v>
+        <v>91.1049</v>
       </c>
       <c r="E2" t="n">
-        <v>73.4954</v>
+        <v>80.6187</v>
       </c>
       <c r="F2" t="n">
-        <v>19.8533</v>
+        <v>27.5022</v>
       </c>
       <c r="G2" t="n">
-        <v>57.7994</v>
+        <v>64.5059</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>FedAvg</t>
+          <t>FedProx</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>86.38679999999999</v>
+        <v>85.6846</v>
       </c>
       <c r="C3" t="n">
-        <v>80.10809999999999</v>
+        <v>78.7834</v>
       </c>
       <c r="D3" t="n">
-        <v>91.1049</v>
+        <v>90.5913</v>
       </c>
       <c r="E3" t="n">
-        <v>80.6187</v>
+        <v>79.69580000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>27.5022</v>
+        <v>24.9378</v>
       </c>
       <c r="G3" t="n">
-        <v>64.5059</v>
+        <v>62.5257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>FedProx</t>
+          <t>Ditto</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>85.6846</v>
+        <v>86.4028</v>
       </c>
       <c r="C4" t="n">
-        <v>78.7834</v>
+        <v>78.8258</v>
       </c>
       <c r="D4" t="n">
-        <v>90.5913</v>
+        <v>90.93219999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>79.69580000000001</v>
+        <v>80.1118</v>
       </c>
       <c r="F4" t="n">
-        <v>24.9378</v>
+        <v>27.56</v>
       </c>
       <c r="G4" t="n">
-        <v>62.5257</v>
+        <v>63.8707</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ditto</t>
+          <t>MOON</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86.4028</v>
+        <v>86.37090000000001</v>
       </c>
       <c r="C5" t="n">
-        <v>78.8258</v>
+        <v>80.2141</v>
       </c>
       <c r="D5" t="n">
-        <v>90.93219999999999</v>
+        <v>91.161</v>
       </c>
       <c r="E5" t="n">
-        <v>80.1118</v>
+        <v>80.6187</v>
       </c>
       <c r="F5" t="n">
-        <v>27.56</v>
+        <v>27.6044</v>
       </c>
       <c r="G5" t="n">
-        <v>63.8707</v>
+        <v>64.5059</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>MOON</t>
+          <t>FedProto</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>86.37090000000001</v>
+        <v>84.5196</v>
       </c>
       <c r="C6" t="n">
-        <v>80.2141</v>
+        <v>70.66549999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>91.161</v>
+        <v>83.87139999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>80.6187</v>
+        <v>73.9113</v>
       </c>
       <c r="F6" t="n">
-        <v>27.6044</v>
+        <v>21.4444</v>
       </c>
       <c r="G6" t="n">
-        <v>64.5059</v>
+        <v>51.2983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>FedProto</t>
+          <t>DBE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>84.5196</v>
+        <v>86.9933</v>
       </c>
       <c r="C7" t="n">
-        <v>70.66549999999999</v>
+        <v>77.9568</v>
       </c>
       <c r="D7" t="n">
-        <v>83.87139999999999</v>
+        <v>90.0432</v>
       </c>
       <c r="E7" t="n">
-        <v>73.9113</v>
+        <v>78.05800000000001</v>
       </c>
       <c r="F7" t="n">
-        <v>21.4444</v>
+        <v>23.3333</v>
       </c>
       <c r="G7" t="n">
-        <v>51.2983</v>
+        <v>61.3488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>DBE</t>
+          <t>MPFT (average)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.9933</v>
+        <v>83.8493</v>
       </c>
       <c r="C8" t="n">
-        <v>77.9568</v>
+        <v>77.3633</v>
       </c>
       <c r="D8" t="n">
-        <v>90.0432</v>
+        <v>89.2274</v>
       </c>
       <c r="E8" t="n">
-        <v>78.05800000000001</v>
+        <v>77.35599999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>23.3333</v>
+        <v>45.9156</v>
       </c>
       <c r="G8" t="n">
-        <v>61.3488</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>MPFT (average)</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>83.8493</v>
-      </c>
-      <c r="C9" t="n">
-        <v>77.3633</v>
-      </c>
-      <c r="D9" t="n">
-        <v>89.2274</v>
-      </c>
-      <c r="E9" t="n">
-        <v>77.35599999999999</v>
-      </c>
-      <c r="F9" t="n">
-        <v>45.9156</v>
-      </c>
-      <c r="G9" t="n">
         <v>61.9839</v>
       </c>
     </row>
